--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/76/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/76/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.9814981498149815</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.7127127127128</v>
+        <v>1001.830183018302</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05025025025025025</v>
+        <v>0.03612361236123612</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5805805805805806</v>
+        <v>0.4003400340034003</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1751.751751751752</v>
+        <v>1494.359435943594</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.02102102102102</v>
+        <v>577.5877587758775</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.06606606606607</v>
+        <v>190.029702970297</v>
       </c>
     </row>
   </sheetData>
